--- a/admin/report3.xlsx
+++ b/admin/report3.xlsx
@@ -382,8 +382,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="true" style="0"/>
-    <col min="2" max="2" width="40" customWidth="true" style="0"/>
+    <col min="1" max="1" width="40" customWidth="true" style="0"/>
+    <col min="2" max="2" width="35" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customHeight="1" ht="20">

--- a/admin/report3.xlsx
+++ b/admin/report3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Посещаемость учащихся за предыдущий месяц</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Дата начала обучения</t>
   </si>
   <si>
+    <t>Номер группы</t>
+  </si>
+  <si>
     <t>Шамшуров Денис Иванович</t>
   </si>
   <si>
@@ -36,6 +39,30 @@
   </si>
   <si>
     <t>Неретин Даниил Александрович</t>
+  </si>
+  <si>
+    <t>Титова Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>Кругов Михаил Александрович</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>Жук Алексей Иванович</t>
+  </si>
+  <si>
+    <t>Леонов Мирослав Сергеевич</t>
+  </si>
+  <si>
+    <t>Неретин Конструирование Александрович</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
   </si>
 </sst>
 </file>
@@ -374,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,45 +410,125 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="true" style="0"/>
-    <col min="2" max="2" width="35" customWidth="true" style="0"/>
+    <col min="2" max="2" width="45" customWidth="true" style="0"/>
+    <col min="0" max="0" width="45" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customHeight="1" ht="20">
+    <row r="1" spans="1:3" customHeight="1" ht="20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
